--- a/1.UVa Online Judge/CPE解題筆記.xlsx
+++ b/1.UVa Online Judge/CPE解題筆記.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yusheng/Dropbox/02.graduate/4.work/04_Uva_onlineJudge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yusheng/Dropbox/02.graduate/4.work/codingNotes/1.UVa Online Judge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D46F41-265F-5642-B448-D0F7566AC119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D43AC6A-7A84-AF40-B36F-A541156EA93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{F5786782-B36D-0747-946C-E0907E5D56F5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="139">
   <si>
     <t>CPE 49題必考一星題</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,10 +457,6 @@
   </si>
   <si>
     <t>Largest Square,       Can You Solve It?   Die Game,               Eb Alto Saxophone Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解題菜單與日誌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -522,6 +518,18 @@
   </si>
   <si>
     <t>2023/11/12, 2023/11/29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eb Alto Saxophone Player, Fourth Point!!, The Hotel with Infinite Rooms, Rotating Sentences, TeX Quotes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cheapest Base, Largest Square, Dooms Day Algorithm, Can You Solve It?, Die Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解題日誌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1027,7 +1035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD581E8-5AA0-7843-9E1E-2610556DD113}">
   <dimension ref="B1:E98"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="133" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="133" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -1088,7 +1096,7 @@
     </row>
     <row r="7" spans="2:5" ht="20">
       <c r="B7" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="1" t="s">
@@ -1121,12 +1129,12 @@
         <v>6</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="20">
       <c r="B10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="1" t="s">
@@ -1136,7 +1144,7 @@
     </row>
     <row r="11" spans="2:5" ht="20">
       <c r="B11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="1" t="s">
@@ -1214,7 +1222,7 @@
     </row>
     <row r="19" spans="2:5" ht="21">
       <c r="B19" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>95</v>
@@ -1228,7 +1236,7 @@
     </row>
     <row r="20" spans="2:5" ht="20">
       <c r="B20" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="1" t="s">
@@ -1952,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9595CEB-720A-2046-858D-0E543AC6AFE4}">
   <dimension ref="B1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="140" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1965,7 +1973,7 @@
     <row r="1" spans="2:8" ht="18" customHeight="1"/>
     <row r="2" spans="2:8" ht="28" customHeight="1">
       <c r="B2" s="8" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="22">
@@ -2015,16 +2023,16 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>125</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="25" customHeight="1">
@@ -2046,7 +2054,7 @@
     </row>
     <row r="9" spans="2:8" ht="107" customHeight="1">
       <c r="E9" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="25" customHeight="1">
@@ -2085,7 +2093,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="82" customHeight="1"/>
+    <row r="13" spans="2:8" ht="150" customHeight="1">
+      <c r="G13" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
     <row r="14" spans="2:8" ht="25" customHeight="1">
       <c r="B14" s="15">
         <v>3</v>
